--- a/data/negative_signals/Indirectly connected (A-X-B) - Zopiclone - Upper gastrointestinal bleeding.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Zopiclone - Upper gastrointestinal bleeding.xlsx
@@ -173,13 +173,13 @@
     <t>Chemicals &amp; Drugs</t>
   </si>
   <si>
-    <t>133368</t>
-  </si>
-  <si>
-    <t>homo sapiens</t>
-  </si>
-  <si>
-    <t>Living Beings</t>
+    <t>65077</t>
+  </si>
+  <si>
+    <t>plasma</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
   </si>
   <si>
     <t>5805729</t>
@@ -191,139 +191,139 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>68946586</t>
+    <t>5905690</t>
   </si>
   <si>
     <t>interacts with</t>
   </si>
   <si>
-    <t>132028620</t>
+    <t>94632524</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>3170803</t>
+  </si>
+  <si>
+    <t>abdominal pain</t>
+  </si>
+  <si>
+    <t>13464416</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>71472828</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>64985054</t>
+  </si>
+  <si>
+    <t>356203</t>
+  </si>
+  <si>
+    <t>asthenia</t>
+  </si>
+  <si>
+    <t>13469750</t>
+  </si>
+  <si>
+    <t>72930440</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>220950</t>
+  </si>
+  <si>
+    <t>kidney failure, acute</t>
+  </si>
+  <si>
+    <t>13469506</t>
+  </si>
+  <si>
+    <t>70623557</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>39424457</t>
+  </si>
+  <si>
+    <t>is ingredient of</t>
+  </si>
+  <si>
+    <t>51563435</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>89816964</t>
+  </si>
+  <si>
+    <t>prevents</t>
+  </si>
+  <si>
+    <t>77651873</t>
+  </si>
+  <si>
+    <t>83279346</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>66750786</t>
+  </si>
+  <si>
+    <t>836328</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>39424462</t>
+  </si>
+  <si>
+    <t>is part of</t>
+  </si>
+  <si>
+    <t>93370995</t>
   </si>
   <si>
     <t>is process of</t>
   </si>
   <si>
-    <t>65077</t>
-  </si>
-  <si>
-    <t>plasma</t>
-  </si>
-  <si>
-    <t>Anatomy</t>
-  </si>
-  <si>
-    <t>72309297</t>
-  </si>
-  <si>
-    <t>160806986</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>356203</t>
-  </si>
-  <si>
-    <t>asthenia</t>
-  </si>
-  <si>
-    <t>79322813</t>
-  </si>
-  <si>
-    <t>indicates</t>
-  </si>
-  <si>
-    <t>139328505</t>
-  </si>
-  <si>
-    <t>predisposes</t>
-  </si>
-  <si>
-    <t>3170803</t>
-  </si>
-  <si>
-    <t>abdominal pain</t>
-  </si>
-  <si>
-    <t>79322312</t>
-  </si>
-  <si>
-    <t>137867848</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>131471321</t>
-  </si>
-  <si>
-    <t>220950</t>
-  </si>
-  <si>
-    <t>kidney failure, acute</t>
-  </si>
-  <si>
-    <t>79322532</t>
-  </si>
-  <si>
-    <t>136945593</t>
-  </si>
-  <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>105776308</t>
-  </si>
-  <si>
-    <t>is ingredient of</t>
-  </si>
-  <si>
-    <t>155973108</t>
-  </si>
-  <si>
-    <t>prevents</t>
-  </si>
-  <si>
-    <t>117766097</t>
-  </si>
-  <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>144088830</t>
-  </si>
-  <si>
-    <t>130146329</t>
-  </si>
-  <si>
-    <t>149700192</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>836328</t>
-  </si>
-  <si>
-    <t>blood</t>
-  </si>
-  <si>
-    <t>105776313</t>
-  </si>
-  <si>
-    <t>is part of</t>
-  </si>
-  <si>
-    <t>160703773</t>
+    <t>94509228</t>
   </si>
   <si>
     <t>is location of</t>
   </si>
   <si>
-    <t>159553704</t>
+    <t>490003</t>
+  </si>
+  <si>
+    <t>cyclooxygenase 1</t>
+  </si>
+  <si>
+    <t>39424464</t>
+  </si>
+  <si>
+    <t>113478507</t>
+  </si>
+  <si>
+    <t>disrupts</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>211.0</v>
+        <v>25.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -590,7 +590,7 @@
         <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
@@ -602,15 +602,21 @@
         <v>58</v>
       </c>
       <c r="K3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" t="s">
         <v>66</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
       </c>
       <c r="M3" t="s">
         <v>67</v>
       </c>
       <c r="N3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -628,10 +634,10 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
         <v>58</v>
@@ -646,10 +652,10 @@
         <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s">
         <v>73</v>
@@ -693,24 +699,18 @@
         <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s">
         <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" t="s">
-        <v>80</v>
-      </c>
-      <c r="P5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>21.0</v>
+        <v>9.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -722,13 +722,13 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
         <v>56</v>
@@ -740,21 +740,45 @@
         <v>58</v>
       </c>
       <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="s">
         <v>83</v>
       </c>
-      <c r="L6" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>84</v>
       </c>
-      <c r="N6" t="s">
-        <v>79</v>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R6" t="s">
+        <v>74</v>
+      </c>
+      <c r="S6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -766,13 +790,13 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
@@ -784,40 +808,22 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>93</v>
-      </c>
-      <c r="R7" t="s">
-        <v>74</v>
-      </c>
-      <c r="S7" t="s">
-        <v>94</v>
-      </c>
-      <c r="T7" t="s">
-        <v>68</v>
-      </c>
-      <c r="U7" t="s">
-        <v>95</v>
-      </c>
-      <c r="V7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
@@ -834,13 +840,13 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -852,22 +858,16 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
-      </c>
-      <c r="O8" t="s">
         <v>103</v>
-      </c>
-      <c r="P8" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
